--- a/output/0/tRNA-Ala-CGC-1-1.xlsx
+++ b/output/0/tRNA-Ala-CGC-1-1.xlsx
@@ -12,24 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26553608</t>
-  </si>
-  <si>
-    <t>26553631</t>
+    <t>26553776</t>
+  </si>
+  <si>
+    <t>26553799</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>26553628</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>26553779</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,7 +38,7 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>TTGGGGACAGAGATGGGGAC</t>
+    <t>AGATGCCGGGGATCGAACCC</t>
   </si>
   <si>
     <t>GGG</t>
@@ -47,70 +47,19 @@
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>90% (69)</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>26553725</t>
-  </si>
-  <si>
-    <t>26553748</t>
-  </si>
-  <si>
-    <t>26553745</t>
-  </si>
-  <si>
-    <t>GGGTAGGGGATGTAGCTCAG</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>99% (74)</t>
-  </si>
-  <si>
-    <t>97% (81)</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>26553776</t>
-  </si>
-  <si>
-    <t>26553799</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>26553779</t>
-  </si>
-  <si>
-    <t>AGATGCCGGGGATCGAACCC</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>69% (54)</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>26553777</t>
@@ -182,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,10 +154,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -264,10 +213,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -303,124 +252,6 @@
         <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" t="s">
         <v>3</v>
       </c>
     </row>
